--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E171C6-0FAF-7440-99BC-D9CA156372D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842AD9D4-37BB-1E4C-BDA6-0ED484CE6A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EM_Exp1" sheetId="1" r:id="rId1"/>
+    <sheet name="EM_Exp2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>EM_Name</t>
   </si>
@@ -47,27 +48,15 @@
     <t>Sex (MAgg, PropAcr, CatSex)</t>
   </si>
   <si>
-    <t>Sex (MAgg, PropWith, CatSex)</t>
-  </si>
-  <si>
     <t>Sex (MAgg, PropAcr, CatAgg)</t>
   </si>
   <si>
-    <t>Sex (MAgg, PropWith, CatAgg)</t>
-  </si>
-  <si>
     <t>Sex (MSex, PropAcr, CatSex)</t>
   </si>
   <si>
     <t>Sex (MSex, PropAcr, CatAgg)</t>
   </si>
   <si>
-    <t>Sex (MSex, PropWith, CatSex)</t>
-  </si>
-  <si>
-    <t>Sex (MSex, PropWith, CatAgg)</t>
-  </si>
-  <si>
     <t>n_sexes</t>
   </si>
   <si>
@@ -102,6 +91,66 @@
   </si>
   <si>
     <t>across</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Est_PropAcr</t>
+  </si>
+  <si>
+    <t>use_fish_sexRatio</t>
+  </si>
+  <si>
+    <t>est_sexRatio_par</t>
+  </si>
+  <si>
+    <t>Fix_Magg</t>
+  </si>
+  <si>
+    <t>sexRatio_al_or_y</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>within_agelen_and_year</t>
+  </si>
+  <si>
+    <t>Est_PropWith_SR_ALY</t>
+  </si>
+  <si>
+    <t>Est_PropWith_SR_Y</t>
+  </si>
+  <si>
+    <t>within_year_only</t>
+  </si>
+  <si>
+    <t>Sex (MAgg, PropWith_SR_ALY, CatSex)</t>
+  </si>
+  <si>
+    <t>Sex (MAgg, PropWith_SR_ALY, CatAgg)</t>
+  </si>
+  <si>
+    <t>Sex (MSex, PropWith_SR_ALY, CatSex)</t>
+  </si>
+  <si>
+    <t>Sex (MSex, PropWith_SR_ALY, CatAgg)</t>
+  </si>
+  <si>
+    <t>Sex (MSex, PropWith_SR_Y, CatSex)</t>
+  </si>
+  <si>
+    <t>Sex (MSex, PropWith_SR_Y, CatAgg)</t>
+  </si>
+  <si>
+    <t>Sex (MAgg, PropWith_SR_Y, CatSex)</t>
+  </si>
+  <si>
+    <t>Sex (MAgg, PropWith_SR_Y, CatAgg)</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -171,9 +220,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -494,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E245F63-8651-0A4B-B01E-B9B55F18C90C}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,17 +560,577 @@
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7EB37-0E8B-7349-9257-258A039C0386}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -537,331 +1145,173 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842AD9D4-37BB-1E4C-BDA6-0ED484CE6A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA7AFA-DFD7-A64F-B2ED-AA112E41A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
   <si>
     <t>EM_Name</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>sexRatio_al_or_y</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>within_agelen_and_year</t>
@@ -636,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -674,7 +671,7 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -712,12 +709,12 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -750,12 +747,12 @@
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -788,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -826,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -864,12 +861,12 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -902,12 +899,12 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -940,12 +937,12 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -978,12 +975,12 @@
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1016,12 +1013,12 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1054,12 +1051,12 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1092,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1102,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,12 +1180,12 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1215,39 +1212,39 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1279,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1311,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA7AFA-DFD7-A64F-B2ED-AA112E41A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1484F451-1F77-9141-A8D6-C309F6A605D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EM_Exp1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
   <si>
     <t>EM_Name</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>selex_type</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Age_AgeSelex</t>
   </si>
 </sst>
 </file>
@@ -539,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E245F63-8651-0A4B-B01E-B9B55F18C90C}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,7 +572,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +609,11 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -635,8 +650,11 @@
       <c r="L2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,8 +691,11 @@
       <c r="L3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,8 +732,11 @@
       <c r="L4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -749,8 +773,11 @@
       <c r="L5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -787,8 +814,11 @@
       <c r="L6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -825,8 +855,11 @@
       <c r="L7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -863,8 +896,11 @@
       <c r="L8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -901,8 +937,11 @@
       <c r="L9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -939,8 +978,11 @@
       <c r="L10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -977,8 +1019,11 @@
       <c r="L11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1015,8 +1060,11 @@
       <c r="L12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1053,8 +1101,11 @@
       <c r="L13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1090,6 +1141,50 @@
       </c>
       <c r="L14" t="s">
         <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7EB37-0E8B-7349-9257-258A039C0386}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>

--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1484F451-1F77-9141-A8D6-C309F6A605D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6CA60A-6341-C040-8CCA-61CE39707219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EM_Exp1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>across</t>
   </si>
   <si>
-    <t>Fix</t>
-  </si>
-  <si>
     <t>Est_PropAcr</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>est_sexRatio_par</t>
   </si>
   <si>
-    <t>Fix_Magg</t>
-  </si>
-  <si>
     <t>sexRatio_al_or_y</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Age_AgeSelex</t>
+  </si>
+  <si>
+    <t>Fix_PropWith</t>
+  </si>
+  <si>
+    <t>Fix_PropAcr</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E245F63-8651-0A4B-B01E-B9B55F18C90C}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -607,10 +607,10 @@
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -648,10 +648,10 @@
         <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -689,10 +689,10 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -730,15 +730,15 @@
         <v>17</v>
       </c>
       <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -771,15 +771,15 @@
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -853,10 +853,10 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
         <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -894,15 +894,15 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
         <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -935,15 +935,15 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -976,15 +976,15 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1017,15 +1017,15 @@
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1058,15 +1058,15 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1099,15 +1099,15 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1140,15 +1140,15 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1181,10 +1181,10 @@
         <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7EB37-0E8B-7349-9257-258A039C0386}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1237,36 +1237,36 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1275,12 +1275,12 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1307,12 +1307,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1339,12 +1339,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1371,12 +1371,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6CA60A-6341-C040-8CCA-61CE39707219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833271D-73B1-2A4F-8343-28A43E576A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>EM_Name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Fix_PropAcr</t>
+  </si>
+  <si>
+    <t>SR_Wt</t>
   </si>
 </sst>
 </file>
@@ -1194,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7EB37-0E8B-7349-9257-258A039C0386}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1217,7 @@
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,8 +1248,11 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1275,109 +1281,121 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -1397,13 +1415,16 @@
         <v>17</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>34</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B833271D-73B1-2A4F-8343-28A43E576A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93786BB9-733F-5A4E-B848-ABD32D416AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="38400" windowHeight="18880" activeTab="2" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EM_Exp1" sheetId="1" r:id="rId1"/>
     <sheet name="EM_Exp2" sheetId="2" r:id="rId2"/>
+    <sheet name="EM_Exp3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
   <si>
     <t>EM_Name</t>
   </si>
@@ -169,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +183,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -240,6 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7EB37-0E8B-7349-9257-258A039C0386}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,4 +1439,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9229120C-1ABF-8E4C-8460-B01764ACE918}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93786BB9-733F-5A4E-B848-ABD32D416AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97032045-02CD-5848-81C4-7EF4159A4D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="38400" windowHeight="18880" activeTab="2" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EM_Exp1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="42">
   <si>
     <t>EM_Name</t>
   </si>
@@ -267,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +307,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -413,7 +413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1443,15 +1443,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9229120C-1ABF-8E4C-8460-B01764ACE918}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1485,9 +1493,7 @@
       <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1520,9 +1526,7 @@
       <c r="J2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1555,35 +1559,7 @@
       <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F10BA2C-CAB4-E049-BE19-BC33ACC3C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65428BF5-83D1-0B48-8070-7154AAE38F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
   <sheets>
     <sheet name="EM_Exp1" sheetId="3" r:id="rId1"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>EM_Name</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>n_sexes</t>
   </si>
   <si>
@@ -106,28 +103,43 @@
     <t>SR_Wt</t>
   </si>
   <si>
-    <t>Sex (MAgg, CatSex)</t>
-  </si>
-  <si>
-    <t>Sex (MAgg, CatAgg)</t>
-  </si>
-  <si>
     <t>FixSR</t>
   </si>
   <si>
     <t>EstSR</t>
   </si>
   <si>
-    <t>Sex (MSex, CatSex)</t>
-  </si>
-  <si>
-    <t>Sex (MSex, CatAgg)</t>
-  </si>
-  <si>
     <t>PropWith</t>
   </si>
   <si>
     <t>PropAcr</t>
+  </si>
+  <si>
+    <t>agg_age</t>
+  </si>
+  <si>
+    <t>Age (LenSel)</t>
+  </si>
+  <si>
+    <t>Age (AgeSel)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Sex (AgeSex, MAgg, CatSex)</t>
+  </si>
+  <si>
+    <t>Sex (AgeSex, MAgg, CatAgg)</t>
+  </si>
+  <si>
+    <t>Sex (AgeSex, MSex, CatSex)</t>
+  </si>
+  <si>
+    <t>Sex (AgeSex, MSex, CatAgg)</t>
+  </si>
+  <si>
+    <t>Sex (AgeAgg, MAgg, CatAgg)</t>
   </si>
 </sst>
 </file>
@@ -231,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -377,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9229120C-1ABF-8E4C-8460-B01764ACE918}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -551,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="b">
         <v>1</v>
@@ -590,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="b">
         <v>0</v>
@@ -608,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>0</v>
@@ -623,16 +635,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3" t="b">
         <v>0</v>
@@ -641,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3"/>
     </row>
@@ -652,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E245F63-8651-0A4B-B01E-B9B55F18C90C}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,97 +685,103 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -775,30 +793,33 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -819,27 +840,30 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -848,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -860,27 +884,30 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -889,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -901,23 +928,117 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,39 +1072,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -992,16 +1113,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -1010,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1018,7 +1139,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1027,16 +1148,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1045,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>

--- a/input/run_EMs.xlsx
+++ b/input/run_EMs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Sex_Strc_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65428BF5-83D1-0B48-8070-7154AAE38F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E38DD9-61F5-ED4E-BBC1-123A604D4D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{7C10F014-D25C-3043-B50D-8183004635F6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>EM_Name</t>
   </si>
@@ -100,53 +100,50 @@
     <t>length</t>
   </si>
   <si>
-    <t>SR_Wt</t>
-  </si>
-  <si>
     <t>FixSR</t>
   </si>
   <si>
     <t>EstSR</t>
   </si>
   <si>
-    <t>PropWith</t>
-  </si>
-  <si>
-    <t>PropAcr</t>
-  </si>
-  <si>
     <t>agg_age</t>
   </si>
   <si>
-    <t>Age (LenSel)</t>
-  </si>
-  <si>
-    <t>Age (AgeSel)</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
-    <t>Sex (AgeSex, MAgg, CatSex)</t>
-  </si>
-  <si>
-    <t>Sex (AgeSex, MAgg, CatAgg)</t>
-  </si>
-  <si>
-    <t>Sex (AgeSex, MSex, CatSex)</t>
-  </si>
-  <si>
-    <t>Sex (AgeSex, MSex, CatAgg)</t>
-  </si>
-  <si>
-    <t>Sex (AgeAgg, MAgg, CatAgg)</t>
+    <t>AgeStrc</t>
+  </si>
+  <si>
+    <t>SglSx_LenSel</t>
+  </si>
+  <si>
+    <t>SglSx_AgeSel</t>
+  </si>
+  <si>
+    <t>MltSx_AggM_SxC</t>
+  </si>
+  <si>
+    <t>MltSx_SxM_AggC</t>
+  </si>
+  <si>
+    <t>MltSx_SxM_SxC</t>
+  </si>
+  <si>
+    <t>Across</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>MltSx_AggM_AggC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +163,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -225,6 +229,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,7 +549,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +600,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="b">
         <v>1</v>
@@ -626,7 +633,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>0</v>
@@ -664,10 +671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E245F63-8651-0A4B-B01E-B9B55F18C90C}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,12 +733,12 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -775,7 +782,7 @@
     </row>
     <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -811,15 +818,15 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
+      <c r="A4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -837,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -858,12 +865,12 @@
         <v>19</v>
       </c>
       <c r="N4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
+      <c r="A5" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -881,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -905,9 +912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -916,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -925,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -950,8 +957,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
+      <c r="A7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -969,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -993,52 +1000,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1047,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD7EB37-0E8B-7349-9257-258A039C0386}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M7" sqref="M7:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1030,7 @@
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,76 +1062,123 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
